--- a/sample_students.xlsx
+++ b/sample_students.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCJ_SYSTEM_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21664BCC-3442-42C8-BD8B-24C176300A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7554B9B-E730-456E-A605-CB891FDB09DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sample_students" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>student_id_number</t>
   </si>
@@ -79,133 +79,190 @@
     <t>guardian_contact</t>
   </si>
   <si>
+    <t>school_year</t>
+  </si>
+  <si>
     <t>year_level</t>
   </si>
   <si>
     <t>graduation_date</t>
   </si>
   <si>
-    <t>2023001</t>
-  </si>
-  <si>
-    <t>2023002</t>
-  </si>
-  <si>
-    <t>2023003</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Purok 1</t>
+  </si>
+  <si>
+    <t>Main St</t>
+  </si>
+  <si>
+    <t>Barangay 1</t>
+  </si>
+  <si>
+    <t>City A</t>
+  </si>
+  <si>
+    <t>State A</t>
+  </si>
+  <si>
+    <t>Father 1</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
     <t>Jane</t>
   </si>
   <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Jr.</t>
+  </si>
+  <si>
+    <t>Purok 2</t>
+  </si>
+  <si>
+    <t>Second St</t>
+  </si>
+  <si>
+    <t>Barangay 2</t>
+  </si>
+  <si>
+    <t>City B</t>
+  </si>
+  <si>
+    <t>State B</t>
+  </si>
+  <si>
+    <t>Guardian 1</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
     <t>Mark</t>
   </si>
   <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
     <t>Johnson</t>
   </si>
   <si>
-    <t>Jr.</t>
-  </si>
-  <si>
     <t>II</t>
   </si>
   <si>
-    <t>2005-01-01</t>
-  </si>
-  <si>
-    <t>2005-02-02</t>
-  </si>
-  <si>
-    <t>2005-03-03</t>
-  </si>
-  <si>
-    <t>Purok 1</t>
-  </si>
-  <si>
-    <t>Purok 2</t>
-  </si>
-  <si>
     <t>Purok 3</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>Main St</t>
-  </si>
-  <si>
-    <t>Second St</t>
-  </si>
-  <si>
     <t>Third St</t>
   </si>
   <si>
-    <t>Barangay 1</t>
-  </si>
-  <si>
-    <t>Barangay 2</t>
-  </si>
-  <si>
     <t>Barangay 3</t>
   </si>
   <si>
-    <t>City A</t>
-  </si>
-  <si>
-    <t>City B</t>
-  </si>
-  <si>
     <t>City C</t>
   </si>
   <si>
-    <t>State A</t>
-  </si>
-  <si>
-    <t>State B</t>
-  </si>
-  <si>
     <t>State C</t>
   </si>
   <si>
-    <t>09123456789</t>
-  </si>
-  <si>
-    <t>09234567890</t>
-  </si>
-  <si>
-    <t>09345678901</t>
-  </si>
-  <si>
-    <t>Guardian 1</t>
-  </si>
-  <si>
-    <t>09123456701</t>
-  </si>
-  <si>
-    <t>09123456713</t>
-  </si>
-  <si>
-    <t>09123456722</t>
+    <t>Mother 1</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Purok 4</t>
+  </si>
+  <si>
+    <t>Fourth St</t>
+  </si>
+  <si>
+    <t>Barangay 4</t>
+  </si>
+  <si>
+    <t>City D</t>
+  </si>
+  <si>
+    <t>State D</t>
+  </si>
+  <si>
+    <t>Father 2</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Purok 6</t>
+  </si>
+  <si>
+    <t>Sixth St</t>
+  </si>
+  <si>
+    <t>Barangay 6</t>
+  </si>
+  <si>
+    <t>City F</t>
+  </si>
+  <si>
+    <t>State F</t>
+  </si>
+  <si>
+    <t>Father 4</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Purok 7</t>
+  </si>
+  <si>
+    <t>Seventh St</t>
+  </si>
+  <si>
+    <t>Barangay 7</t>
+  </si>
+  <si>
+    <t>City G</t>
+  </si>
+  <si>
+    <t>State G</t>
+  </si>
+  <si>
+    <t>Father 5</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>1ST</t>
   </si>
   <si>
     <t>2ND</t>
@@ -214,13 +271,7 @@
     <t>3RD</t>
   </si>
   <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
-    <t>Father 1</t>
-  </si>
-  <si>
-    <t>Mother 1</t>
+    <t>4TH</t>
   </si>
   <si>
     <t>GRADUATE</t>
@@ -229,11 +280,123 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,16 +409,196 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -264,36 +607,207 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -306,9 +820,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -316,44 +830,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -381,14 +895,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -416,9 +947,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,409 +975,542 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2023001</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="1">
+        <v>38353</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>123</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2">
+        <v>9123456789</v>
+      </c>
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="Q2">
+        <v>9123456701</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2023002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" s="1">
+        <v>38385</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>456</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3">
+        <v>9234567890</v>
+      </c>
+      <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S3">
+        <v>9123456722</v>
+      </c>
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2023003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1">
+        <v>38414</v>
+      </c>
+      <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H4">
+        <v>789</v>
+      </c>
+      <c r="I4" t="s">
         <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
       </c>
       <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>9345678901</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="L4" t="s">
+      <c r="Q4">
+        <v>9123456713</v>
+      </c>
+      <c r="T4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2023004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
       </c>
-      <c r="M4" t="s">
+      <c r="F5" s="1">
+        <v>38081</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
         <v>57</v>
       </c>
-      <c r="O4" t="s">
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5">
+        <v>9456789012</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5">
+        <v>9123456780</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2023006</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="1">
+        <v>37413</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6">
+        <v>121</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
         <v>66</v>
       </c>
-      <c r="R4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" t="s">
-        <v>63</v>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6">
+        <v>9678901234</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6">
+        <v>9123456900</v>
+      </c>
+      <c r="T6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2023007</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="1">
+        <v>37079</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7">
+        <v>130</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7">
+        <v>9789012345</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7">
+        <v>9123456980</v>
+      </c>
+      <c r="T7" t="s">
+        <v>79</v>
+      </c>
+      <c r="U7" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" s="1">
+        <v>45444</v>
       </c>
     </row>
   </sheetData>
